--- a/evaluation/results/hybrid/autoencoder/LOF/split_1/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/hybrid/autoencoder/LOF/split_1/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.5327715355805244</v>
+        <v>0.6226591760299626</v>
       </c>
       <c r="C2">
-        <v>0.7464788732394366</v>
+        <v>0.5711183496199783</v>
       </c>
       <c r="D2">
-        <v>0.09925093632958802</v>
+        <v>0.9850187265917603</v>
       </c>
       <c r="E2">
-        <v>0.1752066115702479</v>
+        <v>0.7230240549828179</v>
       </c>
       <c r="F2">
-        <v>0.1200724966017218</v>
+        <v>0.8603205757278377</v>
       </c>
       <c r="G2">
-        <v>0.1026749124506371</v>
+        <v>0.958307056267956</v>
       </c>
       <c r="H2">
-        <v>0.5327715355805244</v>
+        <v>0.7297689685645752</v>
       </c>
       <c r="I2">
-        <v>53</v>
+        <v>526</v>
       </c>
       <c r="J2">
-        <v>18</v>
+        <v>395</v>
       </c>
       <c r="K2">
-        <v>516</v>
+        <v>139</v>
       </c>
       <c r="L2">
-        <v>481</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.5175526579739218</v>
+        <v>0.9455782312925171</v>
       </c>
       <c r="C2">
-        <v>0.9662921348314607</v>
+        <v>0.2602996254681648</v>
       </c>
       <c r="D2">
-        <v>0.674069235793599</v>
+        <v>0.408223201174743</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.7464788732394366</v>
+        <v>0.5711183496199783</v>
       </c>
       <c r="C3">
-        <v>0.09925093632958802</v>
+        <v>0.9850187265917603</v>
       </c>
       <c r="D3">
-        <v>0.1752066115702479</v>
+        <v>0.7230240549828179</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.5327715355805244</v>
+        <v>0.6226591760299626</v>
       </c>
       <c r="C4">
-        <v>0.5327715355805244</v>
+        <v>0.6226591760299626</v>
       </c>
       <c r="D4">
-        <v>0.5327715355805244</v>
+        <v>0.6226591760299626</v>
       </c>
       <c r="E4">
-        <v>0.5327715355805244</v>
+        <v>0.6226591760299626</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.6320157656066792</v>
+        <v>0.7583482904562477</v>
       </c>
       <c r="C5">
-        <v>0.5327715355805244</v>
+        <v>0.6226591760299626</v>
       </c>
       <c r="D5">
-        <v>0.4246379236819235</v>
+        <v>0.5656236280787804</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.6320157656066792</v>
+        <v>0.7583482904562476</v>
       </c>
       <c r="C6">
-        <v>0.5327715355805244</v>
+        <v>0.6226591760299626</v>
       </c>
       <c r="D6">
-        <v>0.4246379236819235</v>
+        <v>0.5656236280787804</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>516</v>
+        <v>139</v>
       </c>
       <c r="C2">
-        <v>18</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>481</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>53</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>
